--- a/pred_ohlcv/54/2019-11-01 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 CHR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="C2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E2" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F2" t="n">
-        <v>16001.9321</v>
+        <v>1316.3512</v>
       </c>
       <c r="G2" t="n">
-        <v>28.03499999999999</v>
+        <v>28.02499999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="C3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13650.7057</v>
+        <v>16001.9321</v>
       </c>
       <c r="G3" t="n">
-        <v>28.02833333333332</v>
+        <v>28.03499999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>28.6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
         <v>28.6</v>
       </c>
       <c r="F4" t="n">
-        <v>26278.2847</v>
+        <v>13650.7057</v>
       </c>
       <c r="G4" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02833333333332</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C5" t="n">
         <v>29.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E5" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="F5" t="n">
-        <v>65605.7038</v>
+        <v>26278.2847</v>
       </c>
       <c r="G5" t="n">
-        <v>28.04499999999998</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9</v>
+        <v>29.5</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="F6" t="n">
-        <v>40845.1435</v>
+        <v>65605.7038</v>
       </c>
       <c r="G6" t="n">
-        <v>28.01833333333332</v>
+        <v>28.04499999999998</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3</v>
+        <v>28.3</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F7" t="n">
-        <v>41147.4683</v>
+        <v>40845.1435</v>
       </c>
       <c r="G7" t="n">
-        <v>28.00499999999998</v>
+        <v>28.01833333333332</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>28.6</v>
       </c>
-      <c r="C8" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E8" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F8" t="n">
-        <v>17092.2837</v>
+        <v>41147.4683</v>
       </c>
       <c r="G8" t="n">
-        <v>27.98666666666664</v>
+        <v>28.00499999999998</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E9" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>17092.2837</v>
       </c>
       <c r="G9" t="n">
-        <v>27.97166666666664</v>
+        <v>27.98666666666664</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C10" t="n">
         <v>28.5</v>
@@ -625,15 +654,18 @@
         <v>28.5</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F10" t="n">
-        <v>30516.0825</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
         <v>27.97166666666664</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="E11" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>13963.8671</v>
+        <v>30516.0825</v>
       </c>
       <c r="G11" t="n">
-        <v>27.95666666666664</v>
+        <v>27.97166666666664</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C12" t="n">
         <v>27.6</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E12" t="n">
         <v>27.6</v>
       </c>
       <c r="F12" t="n">
-        <v>31907.5937</v>
+        <v>13963.8671</v>
       </c>
       <c r="G12" t="n">
-        <v>27.94999999999997</v>
+        <v>27.95666666666664</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E13" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F13" t="n">
-        <v>28.8642</v>
+        <v>31907.5937</v>
       </c>
       <c r="G13" t="n">
-        <v>27.93999999999998</v>
+        <v>27.94999999999997</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1486.9565</v>
+        <v>28.8642</v>
       </c>
       <c r="G14" t="n">
-        <v>27.94499999999998</v>
+        <v>27.93999999999998</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>27.6</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E15" t="n">
         <v>27.6</v>
       </c>
       <c r="F15" t="n">
-        <v>5441.2619</v>
+        <v>1486.9565</v>
       </c>
       <c r="G15" t="n">
-        <v>27.92833333333331</v>
+        <v>27.94499999999998</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>27.6</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F16" t="n">
-        <v>31861.0096</v>
+        <v>5441.2619</v>
       </c>
       <c r="G16" t="n">
-        <v>27.93833333333331</v>
+        <v>27.92833333333331</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E17" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>31861.0096</v>
       </c>
       <c r="G17" t="n">
-        <v>27.94999999999997</v>
+        <v>27.93833333333331</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C18" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D18" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F18" t="n">
-        <v>3325.1577</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>27.96166666666664</v>
+        <v>27.94999999999997</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>28.6</v>
@@ -859,15 +915,18 @@
         <v>28.6</v>
       </c>
       <c r="E19" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>598.8111</v>
+        <v>3325.1577</v>
       </c>
       <c r="G19" t="n">
-        <v>27.97166666666664</v>
+        <v>27.96166666666664</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C20" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D20" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E20" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F20" t="n">
-        <v>2974.968</v>
+        <v>598.8111</v>
       </c>
       <c r="G20" t="n">
-        <v>27.9833333333333</v>
+        <v>27.97166666666664</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>27.8</v>
       </c>
       <c r="C21" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="D21" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E21" t="n">
         <v>27.8</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>2974.968</v>
       </c>
       <c r="G21" t="n">
-        <v>27.99166666666664</v>
+        <v>27.9833333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C22" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D22" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E22" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1381.9813</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>27.9933333333333</v>
+        <v>27.99166666666664</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C23" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="D23" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>1381.9813</v>
       </c>
       <c r="G23" t="n">
-        <v>27.99999999999998</v>
+        <v>27.9933333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D24" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E24" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>28.01166666666664</v>
+        <v>27.99999999999998</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D25" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F25" t="n">
-        <v>4293.9013</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>28.01666666666664</v>
+        <v>28.01166666666664</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D26" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F26" t="n">
-        <v>34270.1896</v>
+        <v>4293.9013</v>
       </c>
       <c r="G26" t="n">
-        <v>28.01499999999998</v>
+        <v>28.01666666666664</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>27.8</v>
       </c>
       <c r="C27" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E27" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>44394.1552</v>
+        <v>34270.1896</v>
       </c>
       <c r="G27" t="n">
-        <v>28.02166666666665</v>
+        <v>28.01499999999998</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C28" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D28" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E28" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>44394.1552</v>
       </c>
       <c r="G28" t="n">
-        <v>28.02999999999998</v>
+        <v>28.02166666666665</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2824.5874</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>28.01833333333332</v>
+        <v>28.02999999999998</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7954.8972</v>
+        <v>2824.5874</v>
       </c>
       <c r="G30" t="n">
-        <v>28.02666666666665</v>
+        <v>28.01833333333332</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>27.8</v>
       </c>
       <c r="C31" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="D31" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E31" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F31" t="n">
-        <v>13114.6062</v>
+        <v>7954.8972</v>
       </c>
       <c r="G31" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02666666666665</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C32" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D32" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E32" t="n">
         <v>27.7</v>
       </c>
       <c r="F32" t="n">
-        <v>34004.1239</v>
+        <v>13114.6062</v>
       </c>
       <c r="G32" t="n">
-        <v>28.03166666666665</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>27.7</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E33" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F33" t="n">
-        <v>160011</v>
+        <v>34004.1239</v>
       </c>
       <c r="G33" t="n">
-        <v>28.02833333333331</v>
+        <v>28.03166666666665</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C34" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
         <v>27.5</v>
       </c>
       <c r="F34" t="n">
-        <v>5344.2333</v>
+        <v>160011</v>
       </c>
       <c r="G34" t="n">
-        <v>28.02666666666665</v>
+        <v>28.02833333333331</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C35" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="D35" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E35" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F35" t="n">
-        <v>452</v>
+        <v>5344.2333</v>
       </c>
       <c r="G35" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02666666666665</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D36" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F36" t="n">
-        <v>30139.32199068</v>
+        <v>452</v>
       </c>
       <c r="G36" t="n">
-        <v>28.02999999999998</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,10 +1428,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C37" t="n">
         <v>27</v>
-      </c>
-      <c r="C37" t="n">
-        <v>27.9</v>
       </c>
       <c r="D37" t="n">
         <v>27.9</v>
@@ -1330,12 +1440,15 @@
         <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>10020</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G37" t="n">
-        <v>28.05166666666666</v>
+        <v>28.02999999999998</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D38" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E38" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>34</v>
+        <v>10020</v>
       </c>
       <c r="G38" t="n">
-        <v>28.05999999999999</v>
+        <v>28.05166666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E39" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G39" t="n">
-        <v>28.07999999999999</v>
+        <v>28.05999999999999</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="C40" t="n">
         <v>27.9</v>
@@ -1405,15 +1524,18 @@
         <v>27.9</v>
       </c>
       <c r="E40" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F40" t="n">
-        <v>40010</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>28.09999999999999</v>
+        <v>28.07999999999999</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>26.8</v>
       </c>
       <c r="C41" t="n">
-        <v>26.3</v>
+        <v>27.9</v>
       </c>
       <c r="D41" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E41" t="n">
         <v>26.8</v>
       </c>
-      <c r="E41" t="n">
-        <v>26.3</v>
-      </c>
       <c r="F41" t="n">
-        <v>199200.8637</v>
+        <v>40010</v>
       </c>
       <c r="G41" t="n">
-        <v>28.08999999999999</v>
+        <v>28.09999999999999</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C42" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="D42" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E42" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F42" t="n">
-        <v>3467.7132</v>
+        <v>199200.8637</v>
       </c>
       <c r="G42" t="n">
-        <v>28.10166666666665</v>
+        <v>28.08999999999999</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C43" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D43" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E43" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F43" t="n">
-        <v>6094.27</v>
+        <v>3467.7132</v>
       </c>
       <c r="G43" t="n">
-        <v>28.08999999999999</v>
+        <v>28.10166666666665</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="D44" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E44" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F44" t="n">
-        <v>160115.8836</v>
+        <v>6094.27</v>
       </c>
       <c r="G44" t="n">
-        <v>28.05499999999999</v>
+        <v>28.08999999999999</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="C45" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E45" t="n">
         <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>213721.6489</v>
+        <v>160115.8836</v>
       </c>
       <c r="G45" t="n">
-        <v>28.03333333333332</v>
+        <v>28.05499999999999</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="C46" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D46" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E46" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F46" t="n">
-        <v>4607.2653</v>
+        <v>213721.6489</v>
       </c>
       <c r="G46" t="n">
-        <v>28.01666666666666</v>
+        <v>28.03333333333332</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C47" t="n">
         <v>27.2</v>
@@ -1587,15 +1727,18 @@
         <v>27.2</v>
       </c>
       <c r="E47" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F47" t="n">
-        <v>11177.5563</v>
+        <v>4607.2653</v>
       </c>
       <c r="G47" t="n">
         <v>28.01666666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>26.3</v>
       </c>
       <c r="C48" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="E48" t="n">
         <v>26.3</v>
       </c>
       <c r="F48" t="n">
-        <v>11728.8442</v>
+        <v>11177.5563</v>
       </c>
       <c r="G48" t="n">
-        <v>27.99499999999999</v>
+        <v>28.01666666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C49" t="n">
         <v>26.3</v>
       </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
         <v>26.3</v>
       </c>
       <c r="F49" t="n">
-        <v>5104.3689</v>
+        <v>11728.8442</v>
       </c>
       <c r="G49" t="n">
-        <v>27.96499999999999</v>
+        <v>27.99499999999999</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>5104.3689</v>
       </c>
       <c r="G50" t="n">
         <v>27.96499999999999</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="F51" t="n">
-        <v>7347</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>27.96333333333333</v>
+        <v>27.96499999999999</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C52" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E52" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F52" t="n">
-        <v>6281</v>
+        <v>7347</v>
       </c>
       <c r="G52" t="n">
-        <v>27.95166666666666</v>
+        <v>27.96333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="C53" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D53" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E53" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F53" t="n">
-        <v>32662.1649</v>
+        <v>6281</v>
       </c>
       <c r="G53" t="n">
-        <v>27.92666666666667</v>
+        <v>27.95166666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C54" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D54" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E54" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2288</v>
+        <v>32662.1649</v>
       </c>
       <c r="G54" t="n">
-        <v>27.91</v>
+        <v>27.92666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F55" t="n">
-        <v>4623.5831</v>
+        <v>2288</v>
       </c>
       <c r="G55" t="n">
-        <v>27.89</v>
+        <v>27.91</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C56" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D56" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E56" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F56" t="n">
-        <v>11139.6374</v>
+        <v>4623.5831</v>
       </c>
       <c r="G56" t="n">
-        <v>27.86666666666666</v>
+        <v>27.89</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.3</v>
       </c>
       <c r="D57" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
         <v>26.3</v>
       </c>
       <c r="F57" t="n">
-        <v>837.9124</v>
+        <v>11139.6374</v>
       </c>
       <c r="G57" t="n">
-        <v>27.83833333333333</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="E58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>837.9124</v>
       </c>
       <c r="G58" t="n">
-        <v>27.81833333333333</v>
+        <v>27.83833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="C59" t="n">
         <v>26.9</v>
@@ -1899,15 +2075,18 @@
         <v>26.9</v>
       </c>
       <c r="E59" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F59" t="n">
-        <v>4832.9573</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>27.78166666666667</v>
+        <v>27.81833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E60" t="n">
         <v>26.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>26.1</v>
-      </c>
       <c r="F60" t="n">
-        <v>29222.2723</v>
+        <v>4832.9573</v>
       </c>
       <c r="G60" t="n">
-        <v>27.72333333333334</v>
+        <v>27.78166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C61" t="n">
         <v>26.1</v>
       </c>
-      <c r="C61" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D61" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E61" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F61" t="n">
-        <v>29233.2723</v>
+        <v>29222.2723</v>
       </c>
       <c r="G61" t="n">
-        <v>27.67833333333333</v>
+        <v>27.72333333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C62" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D62" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E62" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="F62" t="n">
-        <v>47856.9107</v>
+        <v>29233.2723</v>
       </c>
       <c r="G62" t="n">
-        <v>27.63833333333333</v>
+        <v>27.67833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C63" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D63" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E63" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F63" t="n">
-        <v>5724.409</v>
+        <v>47856.9107</v>
       </c>
       <c r="G63" t="n">
-        <v>27.61</v>
+        <v>27.63833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>26.4</v>
       </c>
       <c r="C64" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D64" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="E64" t="n">
         <v>26.4</v>
       </c>
       <c r="F64" t="n">
-        <v>17351.8087</v>
+        <v>5724.409</v>
       </c>
       <c r="G64" t="n">
-        <v>27.56166666666667</v>
+        <v>27.61</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>17351.8087</v>
       </c>
       <c r="G65" t="n">
-        <v>27.51166666666667</v>
+        <v>27.56166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C66" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D66" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E66" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>27.49166666666667</v>
+        <v>27.51166666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C67" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>26.6</v>
       </c>
       <c r="D67" t="n">
         <v>26.7</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="F67" t="n">
-        <v>10528.9406</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
-        <v>27.45833333333334</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C68" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="D68" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F68" t="n">
-        <v>3098</v>
+        <v>10528.9406</v>
       </c>
       <c r="G68" t="n">
-        <v>27.43166666666667</v>
+        <v>27.45833333333334</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>3098</v>
       </c>
       <c r="G69" t="n">
-        <v>27.39666666666667</v>
+        <v>27.43166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>27.36666666666667</v>
+        <v>27.39666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C71" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D71" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E71" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="F71" t="n">
-        <v>18133.686</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>27.35833333333334</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>26.2</v>
       </c>
       <c r="C72" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
         <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>3584.2294</v>
+        <v>18133.686</v>
       </c>
       <c r="G72" t="n">
-        <v>27.33500000000001</v>
+        <v>27.35833333333334</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>26.2</v>
       </c>
       <c r="C73" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D73" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E73" t="n">
         <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>3077.373</v>
+        <v>3584.2294</v>
       </c>
       <c r="G73" t="n">
-        <v>27.30666666666668</v>
+        <v>27.33500000000001</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="C74" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="D74" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E74" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>3077.373</v>
       </c>
       <c r="G74" t="n">
-        <v>27.27333333333334</v>
+        <v>27.30666666666668</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C75" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="D75" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="E75" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F75" t="n">
-        <v>19951.572</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>27.26000000000001</v>
+        <v>27.27333333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="C76" t="n">
         <v>26.8</v>
@@ -2341,15 +2568,18 @@
         <v>26.8</v>
       </c>
       <c r="E76" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F76" t="n">
-        <v>12746.2922</v>
+        <v>19951.572</v>
       </c>
       <c r="G76" t="n">
-        <v>27.23000000000001</v>
+        <v>27.26000000000001</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F77" t="n">
-        <v>10192.8456</v>
+        <v>12746.2922</v>
       </c>
       <c r="G77" t="n">
-        <v>27.20000000000001</v>
+        <v>27.23000000000001</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C78" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D78" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E78" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F78" t="n">
-        <v>78792.4642</v>
+        <v>10192.8456</v>
       </c>
       <c r="G78" t="n">
-        <v>27.17666666666668</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C79" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D79" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E79" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="F79" t="n">
-        <v>27670.7749</v>
+        <v>78792.4642</v>
       </c>
       <c r="G79" t="n">
-        <v>27.15666666666668</v>
+        <v>27.17666666666668</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C80" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D80" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>27670.7749</v>
       </c>
       <c r="G80" t="n">
-        <v>27.14500000000002</v>
+        <v>27.15666666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="D81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F81" t="n">
-        <v>1642.9106</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>27.12666666666668</v>
+        <v>27.14500000000002</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F82" t="n">
-        <v>3117.1331</v>
+        <v>1642.9106</v>
       </c>
       <c r="G82" t="n">
-        <v>27.11333333333335</v>
+        <v>27.12666666666668</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>3117.1331</v>
       </c>
       <c r="G83" t="n">
-        <v>27.09666666666668</v>
+        <v>27.11333333333335</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1646.8027</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>27.07666666666668</v>
+        <v>27.09666666666668</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F85" t="n">
-        <v>2813.2454</v>
+        <v>1646.8027</v>
       </c>
       <c r="G85" t="n">
-        <v>27.06500000000001</v>
+        <v>27.07666666666668</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>27</v>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E86" t="n">
         <v>27</v>
       </c>
       <c r="F86" t="n">
-        <v>30317.162</v>
+        <v>2813.2454</v>
       </c>
       <c r="G86" t="n">
-        <v>27.05333333333335</v>
+        <v>27.06500000000001</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="C87" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D87" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F87" t="n">
-        <v>11981.557</v>
+        <v>30317.162</v>
       </c>
       <c r="G87" t="n">
-        <v>27.02666666666668</v>
+        <v>27.05333333333335</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>11981.557</v>
       </c>
       <c r="G88" t="n">
-        <v>27.00500000000001</v>
+        <v>27.02666666666668</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F89" t="n">
-        <v>11511.6919</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>26.98333333333334</v>
+        <v>27.00500000000001</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="D90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>11511.6919</v>
       </c>
       <c r="G90" t="n">
-        <v>26.97000000000001</v>
+        <v>26.98333333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F91" t="n">
-        <v>258.4363</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>26.94333333333334</v>
+        <v>26.97000000000001</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>26.6</v>
       </c>
       <c r="C92" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="D92" t="n">
         <v>26.6</v>
       </c>
       <c r="E92" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F92" t="n">
-        <v>122069.0901</v>
+        <v>258.4363</v>
       </c>
       <c r="G92" t="n">
-        <v>26.91500000000001</v>
+        <v>26.94333333333334</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C93" t="n">
         <v>26.4</v>
       </c>
       <c r="D93" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E93" t="n">
         <v>26.4</v>
       </c>
       <c r="F93" t="n">
-        <v>3791.1901</v>
+        <v>122069.0901</v>
       </c>
       <c r="G93" t="n">
-        <v>26.88833333333334</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="D94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>3791.1901</v>
       </c>
       <c r="G94" t="n">
-        <v>26.88000000000001</v>
+        <v>26.88833333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>27</v>
       </c>
       <c r="F95" t="n">
-        <v>4551.838</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>26.86166666666668</v>
+        <v>26.88000000000001</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>4551.838</v>
       </c>
       <c r="G96" t="n">
-        <v>26.86500000000001</v>
+        <v>26.86166666666668</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="C97" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E97" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1622.5388</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>26.84166666666668</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="D98" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E98" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>1622.5388</v>
       </c>
       <c r="G98" t="n">
-        <v>26.83166666666668</v>
+        <v>26.84166666666668</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="F99" t="n">
-        <v>6131.77305883</v>
+        <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>26.82166666666668</v>
+        <v>26.83166666666668</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C100" t="n">
         <v>27.3</v>
@@ -2965,15 +3264,18 @@
         <v>27.3</v>
       </c>
       <c r="E100" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2826.896</v>
+        <v>6131.77305883</v>
       </c>
       <c r="G100" t="n">
-        <v>26.81166666666667</v>
+        <v>26.82166666666668</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>2826.896</v>
       </c>
       <c r="G101" t="n">
-        <v>26.83166666666667</v>
+        <v>26.81166666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F102" t="n">
-        <v>9975</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>26.82500000000001</v>
+        <v>26.83166666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>9975</v>
       </c>
       <c r="G103" t="n">
-        <v>26.82666666666667</v>
+        <v>26.82500000000001</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>27.5</v>
       </c>
       <c r="C104" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D104" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E104" t="n">
         <v>27.5</v>
       </c>
       <c r="F104" t="n">
-        <v>25948.0215</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>26.85666666666667</v>
+        <v>26.82666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C105" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E105" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>80.9854</v>
+        <v>25948.0215</v>
       </c>
       <c r="G105" t="n">
-        <v>26.86500000000001</v>
+        <v>26.85666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F106" t="n">
-        <v>0.375</v>
+        <v>80.9854</v>
       </c>
       <c r="G106" t="n">
-        <v>26.86666666666667</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C107" t="n">
         <v>27.3</v>
@@ -3147,15 +3467,18 @@
         <v>27.3</v>
       </c>
       <c r="E107" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="F107" t="n">
-        <v>1605.3956044</v>
+        <v>0.375</v>
       </c>
       <c r="G107" t="n">
-        <v>26.86833333333334</v>
+        <v>26.86666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C108" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D108" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E108" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F108" t="n">
-        <v>432</v>
+        <v>1605.3956044</v>
       </c>
       <c r="G108" t="n">
-        <v>26.87833333333334</v>
+        <v>26.86833333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>26.9</v>
       </c>
       <c r="C109" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D109" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E109" t="n">
         <v>26.9</v>
       </c>
       <c r="F109" t="n">
-        <v>5724.5295</v>
+        <v>432</v>
       </c>
       <c r="G109" t="n">
-        <v>26.89333333333334</v>
+        <v>26.87833333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C110" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D110" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1598.625</v>
+        <v>5724.5295</v>
       </c>
       <c r="G110" t="n">
-        <v>26.90166666666667</v>
+        <v>26.89333333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>27.3</v>
       </c>
       <c r="C111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E111" t="n">
         <v>27.3</v>
       </c>
       <c r="F111" t="n">
-        <v>17.1442</v>
+        <v>1598.625</v>
       </c>
       <c r="G111" t="n">
-        <v>26.90333333333334</v>
+        <v>26.90166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C112" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E112" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="F112" t="n">
-        <v>2032.0765</v>
+        <v>17.1442</v>
       </c>
       <c r="G112" t="n">
         <v>26.90333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C113" t="n">
         <v>26.9</v>
       </c>
       <c r="D113" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E113" t="n">
         <v>26.9</v>
       </c>
-      <c r="E113" t="n">
-        <v>26.5</v>
-      </c>
       <c r="F113" t="n">
-        <v>25973.9344</v>
+        <v>2032.0765</v>
       </c>
       <c r="G113" t="n">
-        <v>26.91000000000001</v>
+        <v>26.90333333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E114" t="n">
         <v>26.5</v>
       </c>
       <c r="F114" t="n">
-        <v>20691.9807</v>
+        <v>25973.9344</v>
       </c>
       <c r="G114" t="n">
-        <v>26.90666666666667</v>
+        <v>26.91000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>20691.9807</v>
       </c>
       <c r="G115" t="n">
-        <v>26.91166666666668</v>
+        <v>26.90666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C116" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D116" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E116" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="F116" t="n">
-        <v>92188.84209999999</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>26.91333333333334</v>
+        <v>26.91166666666668</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>26.5</v>
       </c>
       <c r="C117" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="D117" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E117" t="n">
         <v>26.4</v>
       </c>
       <c r="F117" t="n">
-        <v>52993.9772</v>
+        <v>92188.84209999999</v>
       </c>
       <c r="G117" t="n">
-        <v>26.92333333333335</v>
+        <v>26.91333333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C118" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D118" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E118" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F118" t="n">
-        <v>3025</v>
+        <v>52993.9772</v>
       </c>
       <c r="G118" t="n">
-        <v>26.92000000000001</v>
+        <v>26.92333333333335</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C119" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D119" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E119" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F119" t="n">
-        <v>55247.2401</v>
+        <v>3025</v>
       </c>
       <c r="G119" t="n">
-        <v>26.91500000000001</v>
+        <v>26.92000000000001</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C120" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D120" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E120" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F120" t="n">
-        <v>11</v>
+        <v>55247.2401</v>
       </c>
       <c r="G120" t="n">
-        <v>26.92500000000001</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F121" t="n">
-        <v>6898.9917</v>
+        <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>26.92166666666668</v>
+        <v>26.92500000000001</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C122" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D122" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E122" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="F122" t="n">
-        <v>3708.3724</v>
+        <v>6898.9917</v>
       </c>
       <c r="G122" t="n">
-        <v>26.91500000000001</v>
+        <v>26.92166666666668</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3922,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C123" t="n">
         <v>26.7</v>
@@ -3563,15 +3931,18 @@
         <v>26.7</v>
       </c>
       <c r="E123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F123" t="n">
-        <v>7583.5131</v>
+        <v>3708.3724</v>
       </c>
       <c r="G123" t="n">
-        <v>26.91166666666668</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>7583.5131</v>
       </c>
       <c r="G124" t="n">
-        <v>26.91833333333334</v>
+        <v>26.91166666666668</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>26.8</v>
       </c>
       <c r="C125" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D125" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E125" t="n">
         <v>26.8</v>
       </c>
       <c r="F125" t="n">
-        <v>51148.8747</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>26.92500000000001</v>
+        <v>26.91833333333334</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="C126" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="D126" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="E126" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>51148.8747</v>
       </c>
       <c r="G126" t="n">
-        <v>26.93666666666668</v>
+        <v>26.92500000000001</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="C127" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D127" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E127" t="n">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="F127" t="n">
-        <v>18321.4169</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>26.94500000000001</v>
+        <v>26.93666666666668</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D128" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E128" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F128" t="n">
-        <v>13597.547</v>
+        <v>18321.4169</v>
       </c>
       <c r="G128" t="n">
-        <v>26.95833333333335</v>
+        <v>26.94500000000001</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>13597.547</v>
       </c>
       <c r="G129" t="n">
-        <v>26.97333333333334</v>
+        <v>26.95833333333335</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>27.3</v>
       </c>
       <c r="F130" t="n">
-        <v>20689.3065</v>
+        <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>26.98333333333334</v>
+        <v>26.97333333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>20689.3065</v>
       </c>
       <c r="G131" t="n">
-        <v>26.98833333333334</v>
+        <v>26.98333333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>6655.6934</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>27.00833333333334</v>
+        <v>26.98833333333334</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>365</v>
+        <v>6655.6934</v>
       </c>
       <c r="G133" t="n">
-        <v>27.02666666666668</v>
+        <v>27.00833333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F134" t="n">
-        <v>6639.0542</v>
+        <v>365</v>
       </c>
       <c r="G134" t="n">
-        <v>27.03500000000001</v>
+        <v>27.02666666666668</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,25 +4270,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>6639.0542</v>
       </c>
       <c r="G135" t="n">
-        <v>27.04333333333335</v>
+        <v>27.03500000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3895,21 +4302,24 @@
         <v>27.3</v>
       </c>
       <c r="C136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E136" t="n">
         <v>27.3</v>
       </c>
       <c r="F136" t="n">
-        <v>3012.0677</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>27.05333333333335</v>
+        <v>27.04333333333335</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,25 +4328,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C137" t="n">
-        <v>26.7</v>
+        <v>27.4</v>
       </c>
       <c r="D137" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E137" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="F137" t="n">
-        <v>92235.2776</v>
+        <v>3012.0677</v>
       </c>
       <c r="G137" t="n">
-        <v>27.05000000000001</v>
+        <v>27.05333333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +4357,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C138" t="n">
         <v>26.7</v>
       </c>
-      <c r="C138" t="n">
-        <v>26.8</v>
-      </c>
       <c r="D138" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E138" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F138" t="n">
-        <v>90144.04640000001</v>
+        <v>92235.2776</v>
       </c>
       <c r="G138" t="n">
-        <v>27.04333333333335</v>
+        <v>27.05000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C139" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D139" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E139" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F139" t="n">
-        <v>9070.986500000001</v>
+        <v>90144.04640000001</v>
       </c>
       <c r="G139" t="n">
-        <v>27.03166666666668</v>
+        <v>27.04333333333335</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="C140" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D140" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E140" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>9070.986500000001</v>
       </c>
       <c r="G140" t="n">
-        <v>27.01500000000001</v>
+        <v>27.03166666666668</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C141" t="n">
         <v>26.8</v>
@@ -4031,15 +4453,18 @@
         <v>26.8</v>
       </c>
       <c r="E141" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F141" t="n">
-        <v>8940.5857</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>27.01166666666668</v>
+        <v>27.01500000000001</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="C142" t="n">
         <v>26.8</v>
@@ -4057,535 +4482,18 @@
         <v>26.8</v>
       </c>
       <c r="E142" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F142" t="n">
-        <v>186.567</v>
+        <v>8940.5857</v>
       </c>
       <c r="G142" t="n">
-        <v>27.00666666666668</v>
+        <v>27.01166666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>27470.9701</v>
-      </c>
-      <c r="G143" t="n">
-        <v>27.00000000000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>863.8312</v>
-      </c>
-      <c r="G144" t="n">
-        <v>26.99500000000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>26.99166666666668</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>26.99333333333334</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4455.7663</v>
-      </c>
-      <c r="G147" t="n">
-        <v>26.99833333333335</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>36900.3689</v>
-      </c>
-      <c r="G148" t="n">
-        <v>26.99666666666668</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>74.82470000000001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>27.00500000000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1714.98</v>
-      </c>
-      <c r="G150" t="n">
-        <v>27.00333333333335</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1002.3059</v>
-      </c>
-      <c r="G151" t="n">
-        <v>27.00666666666668</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>29749.8127</v>
-      </c>
-      <c r="G152" t="n">
-        <v>27.01166666666668</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>27.01000000000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>18419.845</v>
-      </c>
-      <c r="G154" t="n">
-        <v>26.99833333333335</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7767.9418</v>
-      </c>
-      <c r="G155" t="n">
-        <v>27.00166666666668</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>26.98833333333335</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>143712.4117</v>
-      </c>
-      <c r="G157" t="n">
-        <v>26.98333333333335</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3455.0943</v>
-      </c>
-      <c r="G158" t="n">
-        <v>26.97000000000002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>26.95166666666669</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>10</v>
-      </c>
-      <c r="G160" t="n">
-        <v>26.94500000000002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5715</v>
-      </c>
-      <c r="G161" t="n">
-        <v>26.92666666666669</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>636</v>
-      </c>
-      <c r="G162" t="n">
-        <v>26.91166666666669</v>
-      </c>
-      <c r="H162" t="n">
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
